--- a/Analytics/B1/Bookings_b1.xlsx
+++ b/Analytics/B1/Bookings_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
     <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
     <t>Gent</t>
   </si>
   <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
     <t>Kortrijk</t>
   </si>
   <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
     <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Eupen</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>1065.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>940.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>930.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>855.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>850.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>825.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>810.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>800.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>795.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>725.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>710.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>695.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>695.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>690.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>640.0</v>
+        <v>225.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>970.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>950.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>940.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>940.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>935.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>890.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>860.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>790.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>790.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>755.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>740.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="14">
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>725.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>725.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>540.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>530.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>2225.0</v>
+        <v>780.0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.16666666666667</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>2005.0</v>
+        <v>715.0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.83333333333333</v>
+        <v>23.833333333333332</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1890.0</v>
+        <v>655.0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.0</v>
+        <v>21.833333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1870.0</v>
+        <v>645.0</v>
       </c>
       <c r="D5" t="n">
-        <v>62.333333333333336</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1795.0</v>
+        <v>600.0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.833333333333336</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>1795.0</v>
+        <v>580.0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.833333333333336</v>
+        <v>19.333333333333332</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>1730.0</v>
+        <v>580.0</v>
       </c>
       <c r="D8" t="n">
-        <v>57.666666666666664</v>
+        <v>19.333333333333332</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1700.0</v>
+        <v>575.0</v>
       </c>
       <c r="D9" t="n">
-        <v>56.666666666666664</v>
+        <v>19.166666666666668</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1660.0</v>
+        <v>565.0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.333333333333336</v>
+        <v>18.833333333333332</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>1515.0</v>
+        <v>560.0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.5</v>
+        <v>18.666666666666668</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>1465.0</v>
+        <v>530.0</v>
       </c>
       <c r="D12" t="n">
-        <v>48.833333333333336</v>
+        <v>17.666666666666668</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1420.0</v>
+        <v>530.0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.333333333333336</v>
+        <v>17.666666666666668</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1420.0</v>
+        <v>530.0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.333333333333336</v>
+        <v>17.666666666666668</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>1380.0</v>
+        <v>510.0</v>
       </c>
       <c r="D15" t="n">
-        <v>46.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>1380.0</v>
+        <v>470.0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.0</v>
+        <v>15.666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>1230.0</v>
+        <v>465.0</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/B1/Bookings_b1.xlsx
+++ b/Analytics/B1/Bookings_b1.xlsx
@@ -70,52 +70,52 @@
     <t>16</t>
   </si>
   <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
     <t>Mechelen</t>
   </si>
   <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>St. Gilloise</t>
-  </si>
-  <si>
-    <t>Dender</t>
+    <t>Gent</t>
   </si>
   <si>
     <t>Club Brugge</t>
   </si>
   <si>
-    <t>Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>St Truiden</t>
   </si>
   <si>
     <t>Standard</t>
   </si>
   <si>
-    <t>St Truiden</t>
+    <t>Antwerp</t>
   </si>
   <si>
     <t>Charleroi</t>
-  </si>
-  <si>
-    <t>Beerschot VA</t>
-  </si>
-  <si>
-    <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,7 +192,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>375.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,7 +203,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>350.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +214,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>345.0</v>
+        <v>465.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +225,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>325.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>320.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>305.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="8">
@@ -258,7 +258,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>305.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="9">
@@ -269,7 +269,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>305.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>285.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,7 +291,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>270.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>255.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +313,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>245.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="15">
@@ -335,7 +335,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>245.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="16">
@@ -346,7 +346,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>245.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="17">
@@ -357,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>225.0</v>
+        <v>295.0</v>
       </c>
     </row>
   </sheetData>
@@ -387,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>460.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>370.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>360.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>350.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>335.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>320.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>305.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>275.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>275.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>240.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>235.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>225.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="14">
@@ -522,7 +522,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>225.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>225.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>225.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>220.0</v>
+        <v>305.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>780.0</v>
+        <v>1165.0</v>
       </c>
       <c r="D2" t="n">
-        <v>26.0</v>
+        <v>38.833333333333336</v>
       </c>
     </row>
     <row r="3">
@@ -602,13 +602,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>715.0</v>
+        <v>925.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.833333333333332</v>
+        <v>30.833333333333332</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>655.0</v>
+        <v>905.0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.833333333333332</v>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="5">
@@ -630,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>645.0</v>
+        <v>905.0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>600.0</v>
+        <v>835.0</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0</v>
+        <v>27.833333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>580.0</v>
+        <v>820.0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.333333333333332</v>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="8">
@@ -672,13 +672,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>580.0</v>
+        <v>805.0</v>
       </c>
       <c r="D8" t="n">
-        <v>19.333333333333332</v>
+        <v>26.833333333333332</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>575.0</v>
+        <v>785.0</v>
       </c>
       <c r="D9" t="n">
-        <v>19.166666666666668</v>
+        <v>26.166666666666668</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>565.0</v>
+        <v>785.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.833333333333332</v>
+        <v>26.166666666666668</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>560.0</v>
+        <v>780.0</v>
       </c>
       <c r="D11" t="n">
-        <v>18.666666666666668</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>530.0</v>
+        <v>780.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.666666666666668</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>530.0</v>
+        <v>740.0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.666666666666668</v>
+        <v>24.666666666666668</v>
       </c>
     </row>
     <row r="14">
@@ -756,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>530.0</v>
+        <v>720.0</v>
       </c>
       <c r="D14" t="n">
-        <v>17.666666666666668</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>510.0</v>
+        <v>695.0</v>
       </c>
       <c r="D15" t="n">
-        <v>17.0</v>
+        <v>23.166666666666668</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>470.0</v>
+        <v>685.0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.666666666666666</v>
+        <v>22.833333333333332</v>
       </c>
     </row>
     <row r="17">
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>465.0</v>
+        <v>335.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.5</v>
+        <v>11.166666666666666</v>
       </c>
     </row>
   </sheetData>
